--- a/Gestion de Projet/133_GESTPROJ_LANGENEGGER_Max-NEVES_Gustavo.xlsx
+++ b/Gestion de Projet/133_GESTPROJ_LANGENEGGER_Max-NEVES_Gustavo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/max_langenegger_studentfr_ch/Documents/Fichiers de conversation Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{842784B3-AB82-49D3-8E72-B8CBCF326D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C4302CF-3B97-4884-9E20-2470CE8DBEBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C15EC8-7143-4013-8CD9-BB1495797B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1035" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>Planning</t>
   </si>
@@ -400,12 +400,27 @@
   <si>
     <t>Ajout  de données dans la DB</t>
   </si>
+  <si>
+    <t>Commencement du frontend acheteur</t>
+  </si>
+  <si>
+    <t>Avancement du frontend</t>
+  </si>
+  <si>
+    <t>Mise en place de l'hébergement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test de l'hébergement </t>
+  </si>
+  <si>
+    <t>Modifiaction de détail dans API gateway et Rest 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,45 +1045,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1098,6 +1074,45 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,76 +1422,76 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="11" width="8" customWidth="1"/>
-    <col min="12" max="17" width="6.5703125" customWidth="1"/>
+    <col min="12" max="17" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:17" ht="21.75" thickBot="1">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="71">
         <v>300232</v>
       </c>
-      <c r="N3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="21.75" thickBot="1">
+      <c r="N3" s="72"/>
+    </row>
+    <row r="4" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1484,36 +1499,36 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B7" s="61" t="s">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="61" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="61" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="61" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1">
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.45" customHeight="1">
+    <row r="9" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
@@ -1580,13 +1595,13 @@
       <c r="E9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="76" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="9"/>
@@ -1599,15 +1614,15 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="68"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
       <c r="K10" s="10"/>
@@ -1618,7 +1633,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>32</v>
       </c>
@@ -1626,9 +1641,9 @@
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="68"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="46" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1656,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1649,9 +1664,9 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="68"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="9"/>
       <c r="J12" s="39" t="s">
         <v>29</v>
@@ -1664,7 +1679,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1672,9 +1687,9 @@
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="68"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="9"/>
       <c r="J13" s="39" t="s">
         <v>29</v>
@@ -1687,15 +1702,15 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="68"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
       <c r="K14" s="10"/>
@@ -1706,7 +1721,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
@@ -1714,9 +1729,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="68"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="9"/>
       <c r="J15" s="54"/>
       <c r="K15" s="10"/>
@@ -1727,7 +1742,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1735,9 +1750,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="68"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="9"/>
       <c r="J16" s="6"/>
       <c r="K16" s="48" t="s">
@@ -1750,15 +1765,15 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" outlineLevel="1">
+    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="9"/>
       <c r="C17" s="6"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="68"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
       <c r="K17" s="56"/>
@@ -1769,7 +1784,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1792,9 @@
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
       <c r="K18" s="10"/>
@@ -1790,7 +1805,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" outlineLevel="1">
+    <row r="19" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1798,9 +1813,9 @@
       <c r="C19" s="6"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="68"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
       <c r="K19" s="10" t="s">
@@ -1815,7 +1830,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" outlineLevel="1">
+    <row r="20" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1823,9 +1838,9 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6" t="s">
         <v>29</v>
@@ -1840,7 +1855,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" outlineLevel="1">
+    <row r="21" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1848,9 +1863,9 @@
       <c r="C21" s="6"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="68"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6" t="s">
         <v>29</v>
@@ -1865,7 +1880,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" outlineLevel="1">
+    <row r="22" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -1873,9 +1888,9 @@
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="68"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
       <c r="K22" s="10"/>
@@ -1888,7 +1903,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" outlineLevel="1">
+    <row r="23" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1896,20 +1911,26 @@
       <c r="C23" s="6"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="68"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="9"/>
       <c r="J23" s="6"/>
       <c r="K23" s="10"/>
       <c r="L23" s="9"/>
       <c r="M23" s="6"/>
       <c r="N23" s="44"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" outlineLevel="1">
+      <c r="O23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1917,28 +1938,34 @@
       <c r="C24" s="6"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="68"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
       <c r="L24" s="9"/>
       <c r="M24" s="6"/>
       <c r="N24" s="45"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" outlineLevel="1">
+      <c r="O24" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="9"/>
       <c r="C25" s="6"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="68"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
@@ -1949,7 +1976,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
@@ -1957,9 +1984,9 @@
       <c r="C26" s="6"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
       <c r="K26" s="10"/>
@@ -1970,15 +1997,15 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" outlineLevel="1">
+    <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="68"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
       <c r="K27" s="10"/>
@@ -1989,15 +2016,15 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" outlineLevel="1">
+    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="9"/>
       <c r="C28" s="6"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="68"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
       <c r="K28" s="10"/>
@@ -2008,15 +2035,15 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" outlineLevel="1">
+    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="68"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="29"/>
       <c r="J29" s="30"/>
       <c r="K29" s="31"/>
@@ -2027,7 +2054,7 @@
       <c r="P29" s="30"/>
       <c r="Q29" s="31"/>
     </row>
-    <row r="30" spans="1:17" outlineLevel="1">
+    <row r="30" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>45</v>
       </c>
@@ -2035,9 +2062,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="68"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="29"/>
       <c r="J30" s="30"/>
       <c r="K30" s="31"/>
@@ -2048,15 +2075,15 @@
       <c r="P30" s="49"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" outlineLevel="1">
+    <row r="31" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="68"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
       <c r="K31" s="31"/>
@@ -2067,7 +2094,7 @@
       <c r="P31" s="30"/>
       <c r="Q31" s="31"/>
     </row>
-    <row r="32" spans="1:17" outlineLevel="1">
+    <row r="32" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>46</v>
       </c>
@@ -2075,9 +2102,9 @@
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="69"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="78"/>
       <c r="I32" s="53"/>
       <c r="J32" s="52"/>
       <c r="K32" s="51" t="s">
@@ -2090,21 +2117,23 @@
       </c>
       <c r="O32" s="53"/>
       <c r="P32" s="52"/>
-      <c r="Q32" s="51"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="Q32" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="37"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2112,11 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F9:F32"/>
-    <mergeCell ref="G9:G32"/>
-    <mergeCell ref="H9:H32"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -2124,6 +2148,11 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F9:F32"/>
+    <mergeCell ref="G9:G32"/>
+    <mergeCell ref="H9:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2145,22 +2174,22 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2169,7 +2198,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1">
+    <row r="4" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2207,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
@@ -2189,7 +2218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>45379</v>
       </c>
@@ -2200,7 +2229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>45379</v>
       </c>
@@ -2211,7 +2240,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>45379</v>
       </c>
@@ -2222,7 +2251,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>45380</v>
       </c>
@@ -2233,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>45400</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>45401</v>
       </c>
@@ -2255,7 +2284,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>45401</v>
       </c>
@@ -2266,7 +2295,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>45401</v>
       </c>
@@ -2277,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>45401</v>
       </c>
@@ -2288,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>45407</v>
       </c>
@@ -2299,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>45407</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>45408</v>
       </c>
@@ -2321,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>45408</v>
       </c>
@@ -2332,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>45408</v>
       </c>
@@ -2343,7 +2372,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>45408</v>
       </c>
@@ -2354,17 +2383,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>72</v>
       </c>
@@ -2374,32 +2403,32 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
         <v>78</v>
       </c>
@@ -2409,7 +2438,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2422,28 +2451,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="A7:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2452,7 +2481,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1">
+    <row r="4" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2461,7 +2490,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
@@ -2472,7 +2501,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>45379</v>
       </c>
@@ -2483,7 +2512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>45379</v>
       </c>
@@ -2494,7 +2523,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>45379</v>
       </c>
@@ -2505,7 +2534,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>45380</v>
       </c>
@@ -2516,62 +2545,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="71">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
         <v>45400</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="71">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="58">
         <v>45401</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="74">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
         <v>45401</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="77">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
         <v>45401</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="66">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="74">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
         <v>45407</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="62">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>45407</v>
       </c>
@@ -2582,7 +2611,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>45408</v>
       </c>
@@ -2593,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>45408</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>45408</v>
       </c>
@@ -2615,7 +2644,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>45408</v>
       </c>
@@ -2626,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>45408</v>
       </c>
@@ -2637,54 +2666,104 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="23"/>
-      <c r="E24" s="80"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>45414</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="E24" s="67"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="23">
-        <f>SUM(C8:C24)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="23">
+        <f>SUM(C8:C28)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="25" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="26" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="25" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="26" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="26" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2693,7 +2772,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2702,12 +2781,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3165,69 +3291,49 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>